--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.00921384564797</v>
+        <v>5.507882</v>
       </c>
       <c r="H2">
-        <v>3.00921384564797</v>
+        <v>16.523646</v>
       </c>
       <c r="I2">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="J2">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.90612446576004</v>
+        <v>4.048438999999999</v>
       </c>
       <c r="N2">
-        <v>3.90612446576004</v>
+        <v>12.145317</v>
       </c>
       <c r="O2">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="P2">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="Q2">
-        <v>11.75436382518939</v>
+        <v>22.29832429619799</v>
       </c>
       <c r="R2">
-        <v>11.75436382518939</v>
+        <v>200.684918665782</v>
       </c>
       <c r="S2">
-        <v>0.003299310282927077</v>
+        <v>0.005993571095952575</v>
       </c>
       <c r="T2">
-        <v>0.003299310282927077</v>
+        <v>0.005993571095952576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.00921384564797</v>
+        <v>5.507882</v>
       </c>
       <c r="H3">
-        <v>3.00921384564797</v>
+        <v>16.523646</v>
       </c>
       <c r="I3">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="J3">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2368631582548</v>
+        <v>11.27122833333333</v>
       </c>
       <c r="N3">
-        <v>11.2368631582548</v>
+        <v>33.813685</v>
       </c>
       <c r="O3">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="P3">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="Q3">
-        <v>33.81412419747192</v>
+        <v>62.08059565505666</v>
       </c>
       <c r="R3">
-        <v>33.81412419747192</v>
+        <v>558.72536089551</v>
       </c>
       <c r="S3">
-        <v>0.009491222947669383</v>
+        <v>0.01668665585786235</v>
       </c>
       <c r="T3">
-        <v>0.009491222947669383</v>
+        <v>0.01668665585786235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.00921384564797</v>
+        <v>5.507882</v>
       </c>
       <c r="H4">
-        <v>3.00921384564797</v>
+        <v>16.523646</v>
       </c>
       <c r="I4">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="J4">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.14807210075798</v>
+        <v>3.219226333333333</v>
       </c>
       <c r="N4">
-        <v>3.14807210075798</v>
+        <v>9.657679</v>
       </c>
       <c r="O4">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920677</v>
       </c>
       <c r="P4">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920676</v>
       </c>
       <c r="Q4">
-        <v>9.473222152699005</v>
+        <v>17.73111877529266</v>
       </c>
       <c r="R4">
-        <v>9.473222152699005</v>
+        <v>159.580068977634</v>
       </c>
       <c r="S4">
-        <v>0.00265902091560866</v>
+        <v>0.004765951000569865</v>
       </c>
       <c r="T4">
-        <v>0.00265902091560866</v>
+        <v>0.004765951000569864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.00921384564797</v>
+        <v>5.507882</v>
       </c>
       <c r="H5">
-        <v>3.00921384564797</v>
+        <v>16.523646</v>
       </c>
       <c r="I5">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="J5">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.23291114727969</v>
+        <v>4.235549333333334</v>
       </c>
       <c r="N5">
-        <v>4.23291114727969</v>
+        <v>12.706648</v>
       </c>
       <c r="O5">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="P5">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="Q5">
-        <v>12.73773483179168</v>
+        <v>23.32890593317867</v>
       </c>
       <c r="R5">
-        <v>12.73773483179168</v>
+        <v>209.960153398608</v>
       </c>
       <c r="S5">
-        <v>0.003575330841952355</v>
+        <v>0.006270581342524336</v>
       </c>
       <c r="T5">
-        <v>0.003575330841952355</v>
+        <v>0.006270581342524334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.00921384564797</v>
+        <v>5.507882</v>
       </c>
       <c r="H6">
-        <v>3.00921384564797</v>
+        <v>16.523646</v>
       </c>
       <c r="I6">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="J6">
-        <v>0.01983093299603421</v>
+        <v>0.03518866199235487</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9542975877222321</v>
+        <v>0.9942166666666665</v>
       </c>
       <c r="N6">
-        <v>0.9542975877222321</v>
+        <v>2.98265</v>
       </c>
       <c r="O6">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="P6">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="Q6">
-        <v>2.871685513842199</v>
+        <v>5.476028082433333</v>
       </c>
       <c r="R6">
-        <v>2.871685513842199</v>
+        <v>49.28425274189999</v>
       </c>
       <c r="S6">
-        <v>0.0008060480078767373</v>
+        <v>0.001471902695445739</v>
       </c>
       <c r="T6">
-        <v>0.0008060480078767373</v>
+        <v>0.001471902695445739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>147.907014682329</v>
+        <v>149.9875183333334</v>
       </c>
       <c r="H7">
-        <v>147.907014682329</v>
+        <v>449.9625550000001</v>
       </c>
       <c r="I7">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612175</v>
       </c>
       <c r="J7">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612176</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.90612446576004</v>
+        <v>4.048438999999999</v>
       </c>
       <c r="N7">
-        <v>3.90612446576004</v>
+        <v>12.145317</v>
       </c>
       <c r="O7">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="P7">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="Q7">
-        <v>577.7432087081747</v>
+        <v>607.2153187338816</v>
       </c>
       <c r="R7">
-        <v>577.7432087081747</v>
+        <v>5464.937868604935</v>
       </c>
       <c r="S7">
-        <v>0.1621656550478139</v>
+        <v>0.1632135282920592</v>
       </c>
       <c r="T7">
-        <v>0.1621656550478139</v>
+        <v>0.1632135282920593</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>147.907014682329</v>
+        <v>149.9875183333334</v>
       </c>
       <c r="H8">
-        <v>147.907014682329</v>
+        <v>449.9625550000001</v>
       </c>
       <c r="I8">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612175</v>
       </c>
       <c r="J8">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612176</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.2368631582548</v>
+        <v>11.27122833333333</v>
       </c>
       <c r="N8">
-        <v>11.2368631582548</v>
+        <v>33.813685</v>
       </c>
       <c r="O8">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="P8">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="Q8">
-        <v>1662.010884131314</v>
+        <v>1690.54356628502</v>
       </c>
       <c r="R8">
-        <v>1662.010884131314</v>
+        <v>15214.89209656518</v>
       </c>
       <c r="S8">
-        <v>0.4665067103504274</v>
+        <v>0.4544015469836053</v>
       </c>
       <c r="T8">
-        <v>0.4665067103504274</v>
+        <v>0.4544015469836053</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>147.907014682329</v>
+        <v>149.9875183333334</v>
       </c>
       <c r="H9">
-        <v>147.907014682329</v>
+        <v>449.9625550000001</v>
       </c>
       <c r="I9">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612175</v>
       </c>
       <c r="J9">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612176</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.14807210075798</v>
+        <v>3.219226333333333</v>
       </c>
       <c r="N9">
-        <v>3.14807210075798</v>
+        <v>9.657679</v>
       </c>
       <c r="O9">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920677</v>
       </c>
       <c r="P9">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920676</v>
       </c>
       <c r="Q9">
-        <v>465.6219464278408</v>
+        <v>482.8437686899828</v>
       </c>
       <c r="R9">
-        <v>465.6219464278408</v>
+        <v>4345.593918209845</v>
       </c>
       <c r="S9">
-        <v>0.1306945487354901</v>
+        <v>0.1297836742097491</v>
       </c>
       <c r="T9">
-        <v>0.1306945487354901</v>
+        <v>0.129783674209749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>147.907014682329</v>
+        <v>149.9875183333334</v>
       </c>
       <c r="H10">
-        <v>147.907014682329</v>
+        <v>449.9625550000001</v>
       </c>
       <c r="I10">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612175</v>
       </c>
       <c r="J10">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612176</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.23291114727969</v>
+        <v>4.235549333333334</v>
       </c>
       <c r="N10">
-        <v>4.23291114727969</v>
+        <v>12.706648</v>
       </c>
       <c r="O10">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="P10">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="Q10">
-        <v>626.0772512096912</v>
+        <v>635.2795332850714</v>
       </c>
       <c r="R10">
-        <v>626.0772512096912</v>
+        <v>5717.515799565642</v>
       </c>
       <c r="S10">
-        <v>0.1757324465656117</v>
+        <v>0.1707569141954252</v>
       </c>
       <c r="T10">
-        <v>0.1757324465656117</v>
+        <v>0.1707569141954252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>147.907014682329</v>
+        <v>149.9875183333334</v>
       </c>
       <c r="H11">
-        <v>147.907014682329</v>
+        <v>449.9625550000001</v>
       </c>
       <c r="I11">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612175</v>
       </c>
       <c r="J11">
-        <v>0.9747177330221033</v>
+        <v>0.9582376829612176</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9542975877222321</v>
+        <v>0.9942166666666665</v>
       </c>
       <c r="N11">
-        <v>0.9542975877222321</v>
+        <v>2.98265</v>
       </c>
       <c r="O11">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="P11">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="Q11">
-        <v>141.1473073185433</v>
+        <v>149.1200905189722</v>
       </c>
       <c r="R11">
-        <v>141.1473073185433</v>
+        <v>1342.08081467075</v>
       </c>
       <c r="S11">
-        <v>0.0396183723227603</v>
+        <v>0.04008201928037865</v>
       </c>
       <c r="T11">
-        <v>0.0396183723227603</v>
+        <v>0.04008201928037865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.827204130978241</v>
+        <v>1.028937</v>
       </c>
       <c r="H12">
-        <v>0.827204130978241</v>
+        <v>3.086811</v>
       </c>
       <c r="I12">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="J12">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.90612446576004</v>
+        <v>4.048438999999999</v>
       </c>
       <c r="N12">
-        <v>3.90612446576004</v>
+        <v>12.145317</v>
       </c>
       <c r="O12">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="P12">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="Q12">
-        <v>3.23116229419188</v>
+        <v>4.165588679342999</v>
       </c>
       <c r="R12">
-        <v>3.23116229419188</v>
+        <v>37.490298114087</v>
       </c>
       <c r="S12">
-        <v>0.000906948869507342</v>
+        <v>0.001119669423338437</v>
       </c>
       <c r="T12">
-        <v>0.000906948869507342</v>
+        <v>0.001119669423338437</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.827204130978241</v>
+        <v>1.028937</v>
       </c>
       <c r="H13">
-        <v>0.827204130978241</v>
+        <v>3.086811</v>
       </c>
       <c r="I13">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="J13">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.2368631582548</v>
+        <v>11.27122833333333</v>
       </c>
       <c r="N13">
-        <v>11.2368631582548</v>
+        <v>33.813685</v>
       </c>
       <c r="O13">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="P13">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="Q13">
-        <v>9.295179623745575</v>
+        <v>11.597383867615</v>
       </c>
       <c r="R13">
-        <v>9.295179623745575</v>
+        <v>104.376454808535</v>
       </c>
       <c r="S13">
-        <v>0.002609046492891238</v>
+        <v>0.003117263154588518</v>
       </c>
       <c r="T13">
-        <v>0.002609046492891238</v>
+        <v>0.003117263154588518</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.827204130978241</v>
+        <v>1.028937</v>
       </c>
       <c r="H14">
-        <v>0.827204130978241</v>
+        <v>3.086811</v>
       </c>
       <c r="I14">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="J14">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.14807210075798</v>
+        <v>3.219226333333333</v>
       </c>
       <c r="N14">
-        <v>3.14807210075798</v>
+        <v>9.657679</v>
       </c>
       <c r="O14">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920677</v>
       </c>
       <c r="P14">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920676</v>
       </c>
       <c r="Q14">
-        <v>2.60409824636435</v>
+        <v>3.312381085741</v>
       </c>
       <c r="R14">
-        <v>2.60409824636435</v>
+        <v>29.811429771669</v>
       </c>
       <c r="S14">
-        <v>0.0007309394408543278</v>
+        <v>0.0008903355817487294</v>
       </c>
       <c r="T14">
-        <v>0.0007309394408543278</v>
+        <v>0.0008903355817487292</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.827204130978241</v>
+        <v>1.028937</v>
       </c>
       <c r="H15">
-        <v>0.827204130978241</v>
+        <v>3.086811</v>
       </c>
       <c r="I15">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="J15">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.23291114727969</v>
+        <v>4.235549333333334</v>
       </c>
       <c r="N15">
-        <v>4.23291114727969</v>
+        <v>12.706648</v>
       </c>
       <c r="O15">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="P15">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="Q15">
-        <v>3.501481587093605</v>
+        <v>4.358113424392001</v>
       </c>
       <c r="R15">
-        <v>3.501481587093605</v>
+        <v>39.223020819528</v>
       </c>
       <c r="S15">
-        <v>0.0009828242836095484</v>
+        <v>0.001171418188485694</v>
       </c>
       <c r="T15">
-        <v>0.0009828242836095484</v>
+        <v>0.001171418188485694</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.827204130978241</v>
+        <v>1.028937</v>
       </c>
       <c r="H16">
-        <v>0.827204130978241</v>
+        <v>3.086811</v>
       </c>
       <c r="I16">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="J16">
-        <v>0.005451333981862596</v>
+        <v>0.006573655046427582</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9542975877222321</v>
+        <v>0.9942166666666665</v>
       </c>
       <c r="N16">
-        <v>0.9542975877222321</v>
+        <v>2.98265</v>
       </c>
       <c r="O16">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="P16">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="Q16">
-        <v>0.7893989067464007</v>
+        <v>1.02298631435</v>
       </c>
       <c r="R16">
-        <v>0.7893989067464007</v>
+        <v>9.206876829149998</v>
       </c>
       <c r="S16">
-        <v>0.0002215748950001408</v>
+        <v>0.0002749686982662032</v>
       </c>
       <c r="T16">
-        <v>0.0002215748950001408</v>
+        <v>0.0002749686982662032</v>
       </c>
     </row>
   </sheetData>
